--- a/data/trans_orig/P6709-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6709-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7623D6F-7FDD-4485-8EB8-E2D87D9C0877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71DCD465-DB03-46D7-AE24-9F85DC2BBF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2A6C5ECC-0D1E-4B8E-B624-F4A0F3567D9A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CD6660F3-FA53-4126-8232-81AA3D8A11A7}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="733">
   <si>
     <t>Población según si tiene influencia sobre el orden en el que realizan las tareas en 2012 (Tasa respuesta: 33,73%)</t>
   </si>
@@ -93,2113 +93,2149 @@
     <t>9,15%</t>
   </si>
   <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
   </si>
   <si>
     <t>7,51%</t>
   </si>
   <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
     <t>3,35%</t>
   </si>
   <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tiene influencia sobre el orden en el que realizan las tareas en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
   </si>
   <si>
     <t>12,38%</t>
   </si>
   <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
   </si>
   <si>
     <t>25,52%</t>
   </si>
   <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
   </si>
   <si>
     <t>22,76%</t>
   </si>
   <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tiene influencia sobre el orden en el que realizan las tareas en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
+    <t>25,23%</t>
   </si>
   <si>
     <t>22,66%</t>
   </si>
   <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
   </si>
   <si>
     <t>26,61%</t>
   </si>
   <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
   </si>
   <si>
     <t>26,81%</t>
   </si>
   <si>
-    <t>28,79%</t>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
   </si>
 </sst>
 </file>
@@ -2611,7 +2647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2435852A-BCA3-4A79-8A02-37F7B7443D45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB1118B-3B90-452E-BF83-595AFF9D8DBD}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3366,13 +3402,13 @@
         <v>8580</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -3450,10 +3486,10 @@
         <v>87</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,13 +3504,13 @@
         <v>44742</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
@@ -3483,13 +3519,13 @@
         <v>20399</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M19" s="7">
         <v>65</v>
@@ -3498,13 +3534,13 @@
         <v>65140</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,13 +3555,13 @@
         <v>53770</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>29</v>
@@ -3534,13 +3570,13 @@
         <v>30001</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>83</v>
@@ -3549,13 +3585,13 @@
         <v>83771</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,7 +3647,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3623,13 +3659,13 @@
         <v>26915</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -3638,13 +3674,13 @@
         <v>21566</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M22" s="7">
         <v>44</v>
@@ -3653,13 +3689,13 @@
         <v>48481</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,13 +3710,13 @@
         <v>16395</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H23" s="7">
         <v>16</v>
@@ -3689,13 +3725,13 @@
         <v>17188</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M23" s="7">
         <v>32</v>
@@ -3704,13 +3740,13 @@
         <v>33583</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,13 +3761,13 @@
         <v>59705</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H24" s="7">
         <v>40</v>
@@ -3740,13 +3776,13 @@
         <v>44515</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M24" s="7">
         <v>98</v>
@@ -3755,13 +3791,13 @@
         <v>104221</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,13 +3812,13 @@
         <v>55414</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
@@ -3791,13 +3827,13 @@
         <v>37508</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M25" s="7">
         <v>87</v>
@@ -3806,13 +3842,13 @@
         <v>92922</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,13 +3863,13 @@
         <v>109182</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H26" s="7">
         <v>64</v>
@@ -3842,13 +3878,13 @@
         <v>68934</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M26" s="7">
         <v>164</v>
@@ -3857,13 +3893,13 @@
         <v>178116</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,7 +3955,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3931,13 +3967,13 @@
         <v>4136</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H28" s="7">
         <v>8</v>
@@ -3946,13 +3982,13 @@
         <v>8518</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M28" s="7">
         <v>11</v>
@@ -3961,13 +3997,13 @@
         <v>12653</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3982,13 +4018,13 @@
         <v>18075</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -3997,13 +4033,13 @@
         <v>11559</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
@@ -4012,13 +4048,13 @@
         <v>29634</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,13 +4069,13 @@
         <v>18451</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -4048,13 +4084,13 @@
         <v>10712</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M30" s="7">
         <v>28</v>
@@ -4063,13 +4099,13 @@
         <v>29163</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4084,13 +4120,13 @@
         <v>12852</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H31" s="7">
         <v>11</v>
@@ -4099,13 +4135,13 @@
         <v>10842</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M31" s="7">
         <v>23</v>
@@ -4114,13 +4150,13 @@
         <v>23694</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,13 +4171,13 @@
         <v>27785</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
@@ -4150,13 +4186,13 @@
         <v>12925</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M32" s="7">
         <v>38</v>
@@ -4165,13 +4201,13 @@
         <v>40710</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4227,7 +4263,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4239,13 +4275,13 @@
         <v>7728</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H34" s="7">
         <v>8</v>
@@ -4254,13 +4290,13 @@
         <v>8046</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M34" s="7">
         <v>14</v>
@@ -4269,10 +4305,10 @@
         <v>15774</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>204</v>
+        <v>125</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>205</v>
@@ -4296,7 +4332,7 @@
         <v>207</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>208</v>
+        <v>74</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -4305,13 +4341,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M35" s="7">
         <v>5</v>
@@ -4320,13 +4356,13 @@
         <v>5787</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>21</v>
+        <v>211</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,13 +4377,13 @@
         <v>21596</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H36" s="7">
         <v>8</v>
@@ -4356,13 +4392,13 @@
         <v>7754</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M36" s="7">
         <v>26</v>
@@ -4371,13 +4407,13 @@
         <v>29350</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,13 +4428,13 @@
         <v>21762</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H37" s="7">
         <v>13</v>
@@ -4407,13 +4443,13 @@
         <v>13001</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>121</v>
+        <v>227</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M37" s="7">
         <v>34</v>
@@ -4422,13 +4458,13 @@
         <v>34763</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,13 +4479,13 @@
         <v>61394</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H38" s="7">
         <v>22</v>
@@ -4458,13 +4494,13 @@
         <v>25517</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M38" s="7">
         <v>81</v>
@@ -4473,13 +4509,13 @@
         <v>86911</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4535,7 +4571,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4547,13 +4583,13 @@
         <v>20422</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H40" s="7">
         <v>23</v>
@@ -4562,13 +4598,13 @@
         <v>23227</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M40" s="7">
         <v>41</v>
@@ -4577,13 +4613,13 @@
         <v>43649</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4598,13 +4634,13 @@
         <v>13341</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>249</v>
+        <v>73</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H41" s="7">
         <v>7</v>
@@ -4613,13 +4649,13 @@
         <v>8115</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M41" s="7">
         <v>20</v>
@@ -4628,13 +4664,13 @@
         <v>21456</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,13 +4685,13 @@
         <v>66773</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H42" s="7">
         <v>37</v>
@@ -4664,13 +4700,13 @@
         <v>41576</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M42" s="7">
         <v>98</v>
@@ -4679,13 +4715,13 @@
         <v>108349</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>173</v>
+        <v>266</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,13 +4736,13 @@
         <v>67415</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H43" s="7">
         <v>34</v>
@@ -4715,13 +4751,13 @@
         <v>36403</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M43" s="7">
         <v>99</v>
@@ -4730,13 +4766,13 @@
         <v>103818</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4751,13 +4787,13 @@
         <v>103123</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H44" s="7">
         <v>68</v>
@@ -4766,13 +4802,13 @@
         <v>70920</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M44" s="7">
         <v>163</v>
@@ -4781,13 +4817,13 @@
         <v>174043</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>280</v>
+        <v>197</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,7 +4879,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4855,13 +4891,13 @@
         <v>16806</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H46" s="7">
         <v>13</v>
@@ -4870,13 +4906,13 @@
         <v>15495</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>34</v>
+        <v>291</v>
       </c>
       <c r="M46" s="7">
         <v>27</v>
@@ -4885,13 +4921,13 @@
         <v>32301</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>290</v>
+        <v>211</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4906,13 +4942,13 @@
         <v>22144</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H47" s="7">
         <v>17</v>
@@ -4921,13 +4957,13 @@
         <v>19460</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>33</v>
+        <v>297</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M47" s="7">
         <v>37</v>
@@ -4936,13 +4972,13 @@
         <v>41604</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>203</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4957,13 +4993,13 @@
         <v>83695</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="H48" s="7">
         <v>52</v>
@@ -4972,13 +5008,13 @@
         <v>57793</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="M48" s="7">
         <v>132</v>
@@ -4987,13 +5023,13 @@
         <v>141488</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,13 +5044,13 @@
         <v>136167</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="H49" s="7">
         <v>76</v>
@@ -5023,13 +5059,13 @@
         <v>80320</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="M49" s="7">
         <v>202</v>
@@ -5038,13 +5074,13 @@
         <v>216486</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,13 +5095,13 @@
         <v>102399</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="H50" s="7">
         <v>77</v>
@@ -5074,13 +5110,13 @@
         <v>86506</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="M50" s="7">
         <v>173</v>
@@ -5089,13 +5125,13 @@
         <v>188905</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,13 +5199,13 @@
         <v>97602</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="H52" s="7">
         <v>85</v>
@@ -5181,10 +5217,10 @@
         <v>35</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="M52" s="7">
         <v>172</v>
@@ -5193,13 +5229,13 @@
         <v>188649</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,13 +5250,13 @@
         <v>99167</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>157</v>
+        <v>336</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="H53" s="7">
         <v>61</v>
@@ -5229,13 +5265,13 @@
         <v>68247</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="M53" s="7">
         <v>153</v>
@@ -5244,13 +5280,13 @@
         <v>167413</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>335</v>
+        <v>249</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,13 +5301,13 @@
         <v>296208</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="H54" s="7">
         <v>177</v>
@@ -5280,13 +5316,13 @@
         <v>196235</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="M54" s="7">
         <v>458</v>
@@ -5295,13 +5331,13 @@
         <v>492443</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,13 +5352,13 @@
         <v>356282</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="H55" s="7">
         <v>200</v>
@@ -5331,13 +5367,13 @@
         <v>210776</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="M55" s="7">
         <v>539</v>
@@ -5346,13 +5382,13 @@
         <v>567058</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5367,13 +5403,13 @@
         <v>564694</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="H56" s="7">
         <v>345</v>
@@ -5382,13 +5418,13 @@
         <v>374046</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="M56" s="7">
         <v>873</v>
@@ -5397,13 +5433,13 @@
         <v>938740</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,7 +5495,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -5483,7 +5519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41AA9597-18AA-407D-B779-C3D88D4AE809}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2457EB-7CE4-4047-9E69-C8D936266CF2}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5500,7 +5536,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5607,13 +5643,13 @@
         <v>41346</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -5622,13 +5658,13 @@
         <v>25178</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="M4" s="7">
         <v>58</v>
@@ -5637,13 +5673,13 @@
         <v>66523</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,13 +5694,13 @@
         <v>13925</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -5673,13 +5709,13 @@
         <v>12129</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="M5" s="7">
         <v>26</v>
@@ -5688,13 +5724,13 @@
         <v>26054</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>208</v>
+        <v>388</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>381</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,13 +5745,13 @@
         <v>19253</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
@@ -5724,13 +5760,13 @@
         <v>8824</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="M6" s="7">
         <v>25</v>
@@ -5739,13 +5775,13 @@
         <v>28076</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>93</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5760,13 +5796,13 @@
         <v>15554</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -5775,13 +5811,13 @@
         <v>13490</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -5790,13 +5826,13 @@
         <v>29045</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5811,13 +5847,13 @@
         <v>46088</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="H8" s="7">
         <v>39</v>
@@ -5826,13 +5862,13 @@
         <v>41355</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="M8" s="7">
         <v>81</v>
@@ -5841,13 +5877,13 @@
         <v>87443</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5915,13 +5951,13 @@
         <v>19950</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>410</v>
+        <v>131</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -5930,13 +5966,13 @@
         <v>18837</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -5945,13 +5981,13 @@
         <v>38787</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>69</v>
+        <v>422</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,13 +6002,13 @@
         <v>22045</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -5981,13 +6017,13 @@
         <v>11585</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>419</v>
+        <v>291</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>421</v>
+        <v>143</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
@@ -5996,13 +6032,13 @@
         <v>33630</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>422</v>
+        <v>252</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,13 +6053,13 @@
         <v>34057</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="H12" s="7">
         <v>26</v>
@@ -6032,13 +6068,13 @@
         <v>27260</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="M12" s="7">
         <v>58</v>
@@ -6047,13 +6083,13 @@
         <v>61316</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>432</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,13 +6104,13 @@
         <v>33416</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -6083,13 +6119,13 @@
         <v>9902</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>437</v>
+        <v>297</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>438</v>
+        <v>162</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
@@ -6098,13 +6134,13 @@
         <v>43317</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>440</v>
+        <v>112</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,13 +6155,13 @@
         <v>60830</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H14" s="7">
         <v>44</v>
@@ -6134,13 +6170,13 @@
         <v>46096</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M14" s="7">
         <v>100</v>
@@ -6149,13 +6185,13 @@
         <v>106927</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>164</v>
+        <v>451</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,13 +6259,13 @@
         <v>15269</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -6238,13 +6274,13 @@
         <v>10429</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -6253,13 +6289,13 @@
         <v>25698</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,13 +6310,13 @@
         <v>22050</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -6289,13 +6325,13 @@
         <v>11167</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -6304,13 +6340,13 @@
         <v>33218</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>465</v>
+        <v>137</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,13 +6361,13 @@
         <v>39332</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H18" s="7">
         <v>22</v>
@@ -6340,13 +6376,13 @@
         <v>20736</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M18" s="7">
         <v>64</v>
@@ -6355,13 +6391,13 @@
         <v>60069</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>366</v>
+        <v>477</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6376,13 +6412,13 @@
         <v>31563</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>478</v>
+        <v>322</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -6391,13 +6427,13 @@
         <v>29868</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="M19" s="7">
         <v>62</v>
@@ -6406,13 +6442,13 @@
         <v>61431</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>442</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6427,13 +6463,13 @@
         <v>18170</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>485</v>
+        <v>255</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -6442,13 +6478,13 @@
         <v>12131</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>488</v>
+        <v>144</v>
       </c>
       <c r="M20" s="7">
         <v>31</v>
@@ -6457,13 +6493,13 @@
         <v>30301</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>374</v>
+        <v>490</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6519,7 +6555,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6531,13 +6567,13 @@
         <v>14000</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -6546,13 +6582,13 @@
         <v>11618</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>494</v>
+        <v>296</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>495</v>
+        <v>259</v>
       </c>
       <c r="M22" s="7">
         <v>24</v>
@@ -6639,7 +6675,7 @@
         <v>509</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>476</v>
+        <v>510</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -6648,13 +6684,13 @@
         <v>11709</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>227</v>
+        <v>511</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="M24" s="7">
         <v>31</v>
@@ -6663,13 +6699,13 @@
         <v>31081</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6684,13 +6720,13 @@
         <v>14828</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>291</v>
+        <v>518</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -6699,13 +6735,13 @@
         <v>13094</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="M25" s="7">
         <v>27</v>
@@ -6714,13 +6750,13 @@
         <v>27922</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>520</v>
+        <v>47</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6735,13 +6771,13 @@
         <v>56378</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="H26" s="7">
         <v>38</v>
@@ -6750,13 +6786,13 @@
         <v>40512</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="M26" s="7">
         <v>90</v>
@@ -6765,13 +6801,13 @@
         <v>96889</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6827,7 +6863,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6839,13 +6875,13 @@
         <v>1845</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -6854,13 +6890,13 @@
         <v>4107</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>533</v>
+        <v>403</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -6869,13 +6905,13 @@
         <v>5951</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6890,13 +6926,13 @@
         <v>9295</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>375</v>
+        <v>541</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -6905,13 +6941,13 @@
         <v>10315</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="M29" s="7">
         <v>20</v>
@@ -6920,13 +6956,13 @@
         <v>19610</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6941,13 +6977,13 @@
         <v>31880</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="H30" s="7">
         <v>20</v>
@@ -6956,13 +6992,13 @@
         <v>18126</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="M30" s="7">
         <v>49</v>
@@ -6971,13 +7007,13 @@
         <v>50006</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6992,13 +7028,13 @@
         <v>28777</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>347</v>
+        <v>558</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="H31" s="7">
         <v>17</v>
@@ -7007,13 +7043,13 @@
         <v>16655</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>339</v>
+        <v>561</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="M31" s="7">
         <v>47</v>
@@ -7022,13 +7058,13 @@
         <v>45432</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7043,13 +7079,13 @@
         <v>9133</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
@@ -7058,13 +7094,13 @@
         <v>6215</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="M32" s="7">
         <v>16</v>
@@ -7073,13 +7109,13 @@
         <v>15348</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>378</v>
+        <v>573</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7135,7 +7171,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -7147,13 +7183,13 @@
         <v>1862</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -7162,13 +7198,13 @@
         <v>1872</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -7177,13 +7213,13 @@
         <v>3733</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7198,13 +7234,13 @@
         <v>24253</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="H35" s="7">
         <v>15</v>
@@ -7213,13 +7249,13 @@
         <v>15095</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>130</v>
+        <v>587</v>
       </c>
       <c r="M35" s="7">
         <v>38</v>
@@ -7228,13 +7264,13 @@
         <v>39349</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>584</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7249,13 +7285,13 @@
         <v>23761</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="H36" s="7">
         <v>31</v>
@@ -7264,13 +7300,13 @@
         <v>29401</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>147</v>
+        <v>594</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="M36" s="7">
         <v>54</v>
@@ -7279,13 +7315,13 @@
         <v>53162</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7300,13 +7336,13 @@
         <v>30937</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="H37" s="7">
         <v>20</v>
@@ -7315,13 +7351,13 @@
         <v>19404</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="M37" s="7">
         <v>49</v>
@@ -7330,13 +7366,13 @@
         <v>50342</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7351,13 +7387,13 @@
         <v>26689</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="H38" s="7">
         <v>9</v>
@@ -7366,13 +7402,13 @@
         <v>9796</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>384</v>
+        <v>613</v>
       </c>
       <c r="M38" s="7">
         <v>35</v>
@@ -7381,13 +7417,13 @@
         <v>36485</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>434</v>
+        <v>504</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7443,7 +7479,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7455,13 +7491,13 @@
         <v>52862</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>339</v>
+        <v>618</v>
       </c>
       <c r="H40" s="7">
         <v>32</v>
@@ -7470,13 +7506,13 @@
         <v>32990</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>611</v>
+        <v>468</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="M40" s="7">
         <v>80</v>
@@ -7485,13 +7521,13 @@
         <v>85852</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7506,13 +7542,13 @@
         <v>61306</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>617</v>
+        <v>263</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>393</v>
+        <v>621</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="H41" s="7">
         <v>56</v>
@@ -7521,13 +7557,13 @@
         <v>59241</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>155</v>
+        <v>625</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="M41" s="7">
         <v>111</v>
@@ -7536,13 +7572,13 @@
         <v>120547</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>465</v>
+        <v>628</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>372</v>
+        <v>629</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7557,13 +7593,13 @@
         <v>121431</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="H42" s="7">
         <v>92</v>
@@ -7572,13 +7608,13 @@
         <v>92911</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="M42" s="7">
         <v>194</v>
@@ -7587,13 +7623,13 @@
         <v>214342</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7608,13 +7644,13 @@
         <v>54471</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="H43" s="7">
         <v>36</v>
@@ -7623,13 +7659,13 @@
         <v>38132</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>635</v>
+        <v>120</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>636</v>
+        <v>536</v>
       </c>
       <c r="M43" s="7">
         <v>84</v>
@@ -7638,13 +7674,13 @@
         <v>92603</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7659,13 +7695,13 @@
         <v>69855</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="H44" s="7">
         <v>58</v>
@@ -7674,13 +7710,13 @@
         <v>61592</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>644</v>
+        <v>263</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="M44" s="7">
         <v>118</v>
@@ -7689,13 +7725,13 @@
         <v>131447</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>647</v>
+        <v>306</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7751,7 +7787,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7763,13 +7799,13 @@
         <v>7007</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="H46" s="7">
         <v>5</v>
@@ -7778,13 +7814,13 @@
         <v>4961</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>576</v>
+        <v>658</v>
       </c>
       <c r="M46" s="7">
         <v>12</v>
@@ -7793,13 +7829,13 @@
         <v>11968</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7814,13 +7850,13 @@
         <v>26962</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="H47" s="7">
         <v>25</v>
@@ -7829,13 +7865,13 @@
         <v>25945</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="M47" s="7">
         <v>50</v>
@@ -7844,13 +7880,13 @@
         <v>52907</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>665</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7865,13 +7901,13 @@
         <v>87109</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>321</v>
+        <v>670</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>446</v>
+        <v>672</v>
       </c>
       <c r="H48" s="7">
         <v>54</v>
@@ -7880,13 +7916,13 @@
         <v>55723</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="M48" s="7">
         <v>140</v>
@@ -7895,13 +7931,13 @@
         <v>142832</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7916,13 +7952,13 @@
         <v>111605</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="H49" s="7">
         <v>92</v>
@@ -7931,13 +7967,13 @@
         <v>95536</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="M49" s="7">
         <v>199</v>
@@ -7946,13 +7982,13 @@
         <v>207141</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7967,13 +8003,13 @@
         <v>96254</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="H50" s="7">
         <v>55</v>
@@ -7982,13 +8018,13 @@
         <v>58306</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="M50" s="7">
         <v>145</v>
@@ -7997,13 +8033,13 @@
         <v>154561</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>270</v>
+        <v>692</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8071,13 +8107,13 @@
         <v>154140</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="H52" s="7">
         <v>107</v>
@@ -8086,13 +8122,13 @@
         <v>109992</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="M52" s="7">
         <v>246</v>
@@ -8101,13 +8137,13 @@
         <v>264132</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>293</v>
+        <v>701</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>693</v>
+        <v>586</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8122,13 +8158,13 @@
         <v>187440</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>695</v>
+        <v>112</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="H53" s="7">
         <v>146</v>
@@ -8137,13 +8173,13 @@
         <v>150403</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>28</v>
+        <v>704</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>603</v>
+        <v>706</v>
       </c>
       <c r="M53" s="7">
         <v>322</v>
@@ -8152,13 +8188,13 @@
         <v>337843</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8173,13 +8209,13 @@
         <v>376194</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="H54" s="7">
         <v>266</v>
@@ -8188,13 +8224,13 @@
         <v>264690</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>218</v>
+        <v>713</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>314</v>
+        <v>715</v>
       </c>
       <c r="M54" s="7">
         <v>615</v>
@@ -8203,13 +8239,13 @@
         <v>640885</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>705</v>
+        <v>626</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>318</v>
+        <v>717</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8224,13 +8260,13 @@
         <v>321151</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>707</v>
+        <v>718</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>708</v>
+        <v>719</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H55" s="7">
         <v>232</v>
@@ -8239,13 +8275,13 @@
         <v>236082</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>346</v>
+        <v>721</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>140</v>
+        <v>357</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>218</v>
+        <v>722</v>
       </c>
       <c r="M55" s="7">
         <v>537</v>
@@ -8254,13 +8290,13 @@
         <v>557233</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>710</v>
+        <v>723</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>711</v>
+        <v>347</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8275,13 +8311,13 @@
         <v>383397</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>713</v>
+        <v>231</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>714</v>
+        <v>725</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>715</v>
+        <v>726</v>
       </c>
       <c r="H56" s="7">
         <v>262</v>
@@ -8290,13 +8326,13 @@
         <v>276004</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>716</v>
+        <v>727</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>717</v>
+        <v>728</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>718</v>
+        <v>729</v>
       </c>
       <c r="M56" s="7">
         <v>616</v>
@@ -8305,13 +8341,13 @@
         <v>659401</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>719</v>
+        <v>730</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>368</v>
+        <v>731</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8367,7 +8403,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6709-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6709-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71DCD465-DB03-46D7-AE24-9F85DC2BBF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12F2501B-3C66-4475-A6DF-36CC7396266C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CD6660F3-FA53-4126-8232-81AA3D8A11A7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{469A215B-87C2-47C4-8D98-D816ACFBD554}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="715">
   <si>
     <t>Población según si tiene influencia sobre el orden en el que realizan las tareas en 2012 (Tasa respuesta: 33,73%)</t>
   </si>
@@ -93,2149 +93,2095 @@
     <t>9,15%</t>
   </si>
   <si>
-    <t>5,23%</t>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
   </si>
   <si>
     <t>14,81%</t>
   </si>
   <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tiene influencia sobre el orden en el que realizan las tareas en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
   </si>
   <si>
     <t>15,88%</t>
   </si>
   <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
   </si>
   <si>
     <t>29,85%</t>
   </si>
   <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
   </si>
   <si>
     <t>11,92%</t>
   </si>
   <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
   </si>
   <si>
     <t>26,96%</t>
   </si>
   <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tiene influencia sobre el orden en el que realizan las tareas en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
+    <t>29,25%</t>
   </si>
   <si>
     <t>26,61%</t>
   </si>
   <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
   </si>
 </sst>
 </file>
@@ -2647,7 +2593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB1118B-3B90-452E-BF83-595AFF9D8DBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4C6FA3-D5CF-4657-9A0C-E3D42C850C84}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3402,13 +3348,13 @@
         <v>8580</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -3417,13 +3363,13 @@
         <v>7105</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -3432,13 +3378,13 @@
         <v>15684</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3453,13 +3399,13 @@
         <v>29318</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -3468,13 +3414,13 @@
         <v>17771</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M18" s="7">
         <v>47</v>
@@ -3483,13 +3429,13 @@
         <v>47089</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,13 +3450,13 @@
         <v>44742</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
@@ -3519,13 +3465,13 @@
         <v>20399</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M19" s="7">
         <v>65</v>
@@ -3534,13 +3480,13 @@
         <v>65140</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,13 +3501,13 @@
         <v>53770</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>29</v>
@@ -3570,13 +3516,13 @@
         <v>30001</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>83</v>
@@ -3585,13 +3531,13 @@
         <v>83771</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,7 +3593,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3659,13 +3605,13 @@
         <v>26915</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -3674,10 +3620,10 @@
         <v>21566</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>114</v>
@@ -3740,13 +3686,13 @@
         <v>33583</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3761,13 +3707,13 @@
         <v>59705</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H24" s="7">
         <v>40</v>
@@ -3776,13 +3722,13 @@
         <v>44515</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M24" s="7">
         <v>98</v>
@@ -3791,13 +3737,13 @@
         <v>104221</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,13 +3758,13 @@
         <v>55414</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
@@ -3827,13 +3773,13 @@
         <v>37508</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M25" s="7">
         <v>87</v>
@@ -3842,13 +3788,13 @@
         <v>92922</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,13 +3809,13 @@
         <v>109182</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H26" s="7">
         <v>64</v>
@@ -3878,13 +3824,13 @@
         <v>68934</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M26" s="7">
         <v>164</v>
@@ -3893,13 +3839,13 @@
         <v>178116</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,7 +3901,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3967,13 +3913,13 @@
         <v>4136</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H28" s="7">
         <v>8</v>
@@ -3982,13 +3928,13 @@
         <v>8518</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M28" s="7">
         <v>11</v>
@@ -3997,13 +3943,13 @@
         <v>12653</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,13 +3964,13 @@
         <v>18075</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -4033,13 +3979,13 @@
         <v>11559</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
@@ -4048,13 +3994,13 @@
         <v>29634</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,13 +4015,13 @@
         <v>18451</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -4084,13 +4030,13 @@
         <v>10712</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M30" s="7">
         <v>28</v>
@@ -4099,13 +4045,13 @@
         <v>29163</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4120,13 +4066,13 @@
         <v>12852</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H31" s="7">
         <v>11</v>
@@ -4135,13 +4081,13 @@
         <v>10842</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M31" s="7">
         <v>23</v>
@@ -4150,13 +4096,13 @@
         <v>23694</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,13 +4117,13 @@
         <v>27785</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
@@ -4186,13 +4132,13 @@
         <v>12925</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M32" s="7">
         <v>38</v>
@@ -4201,13 +4147,13 @@
         <v>40710</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>84</v>
+        <v>193</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,7 +4209,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4275,13 +4221,13 @@
         <v>7728</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H34" s="7">
         <v>8</v>
@@ -4290,13 +4236,13 @@
         <v>8046</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>19</v>
+        <v>199</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M34" s="7">
         <v>14</v>
@@ -4305,13 +4251,13 @@
         <v>15774</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,13 +4272,13 @@
         <v>5787</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -4341,13 +4287,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M35" s="7">
         <v>5</v>
@@ -4356,13 +4302,13 @@
         <v>5787</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4377,13 +4323,13 @@
         <v>21596</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H36" s="7">
         <v>8</v>
@@ -4392,13 +4338,13 @@
         <v>7754</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M36" s="7">
         <v>26</v>
@@ -4407,13 +4353,13 @@
         <v>29350</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4428,13 +4374,13 @@
         <v>21762</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H37" s="7">
         <v>13</v>
@@ -4443,13 +4389,13 @@
         <v>13001</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M37" s="7">
         <v>34</v>
@@ -4458,13 +4404,13 @@
         <v>34763</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,13 +4425,13 @@
         <v>61394</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H38" s="7">
         <v>22</v>
@@ -4494,13 +4440,13 @@
         <v>25517</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M38" s="7">
         <v>81</v>
@@ -4509,13 +4455,13 @@
         <v>86911</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,7 +4517,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4583,13 +4529,13 @@
         <v>20422</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H40" s="7">
         <v>23</v>
@@ -4598,13 +4544,13 @@
         <v>23227</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M40" s="7">
         <v>41</v>
@@ -4613,13 +4559,13 @@
         <v>43649</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4634,13 +4580,13 @@
         <v>13341</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>251</v>
+        <v>27</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>73</v>
+        <v>248</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H41" s="7">
         <v>7</v>
@@ -4649,13 +4595,13 @@
         <v>8115</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M41" s="7">
         <v>20</v>
@@ -4664,13 +4610,13 @@
         <v>21456</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,13 +4631,13 @@
         <v>66773</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H42" s="7">
         <v>37</v>
@@ -4700,13 +4646,13 @@
         <v>41576</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M42" s="7">
         <v>98</v>
@@ -4715,13 +4661,13 @@
         <v>108349</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,13 +4682,13 @@
         <v>67415</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H43" s="7">
         <v>34</v>
@@ -4751,13 +4697,13 @@
         <v>36403</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M43" s="7">
         <v>99</v>
@@ -4766,13 +4712,13 @@
         <v>103818</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4787,13 +4733,13 @@
         <v>103123</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H44" s="7">
         <v>68</v>
@@ -4802,13 +4748,13 @@
         <v>70920</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="M44" s="7">
         <v>163</v>
@@ -4817,13 +4763,13 @@
         <v>174043</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>197</v>
+        <v>279</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,7 +4825,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4891,13 +4837,13 @@
         <v>16806</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H46" s="7">
         <v>13</v>
@@ -4906,13 +4852,13 @@
         <v>15495</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M46" s="7">
         <v>27</v>
@@ -4921,13 +4867,13 @@
         <v>32301</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>211</v>
+        <v>290</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4945,10 +4891,10 @@
         <v>118</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H47" s="7">
         <v>17</v>
@@ -4957,13 +4903,13 @@
         <v>19460</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M47" s="7">
         <v>37</v>
@@ -4972,13 +4918,13 @@
         <v>41604</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4993,13 +4939,13 @@
         <v>83695</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H48" s="7">
         <v>52</v>
@@ -5008,13 +4954,13 @@
         <v>57793</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L48" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M48" s="7">
         <v>132</v>
@@ -5023,13 +4969,13 @@
         <v>141488</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -5044,13 +4990,13 @@
         <v>136167</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H49" s="7">
         <v>76</v>
@@ -5059,13 +5005,13 @@
         <v>80320</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L49" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M49" s="7">
         <v>202</v>
@@ -5074,13 +5020,13 @@
         <v>216486</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,13 +5041,13 @@
         <v>102399</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>319</v>
+        <v>263</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H50" s="7">
         <v>77</v>
@@ -5110,13 +5056,13 @@
         <v>86506</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M50" s="7">
         <v>173</v>
@@ -5125,13 +5071,13 @@
         <v>188905</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,13 +5145,13 @@
         <v>97602</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H52" s="7">
         <v>85</v>
@@ -5217,10 +5163,10 @@
         <v>35</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>332</v>
+        <v>81</v>
       </c>
       <c r="M52" s="7">
         <v>172</v>
@@ -5229,13 +5175,13 @@
         <v>188649</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,13 +5196,13 @@
         <v>99167</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H53" s="7">
         <v>61</v>
@@ -5265,28 +5211,28 @@
         <v>68247</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M53" s="7">
         <v>153</v>
       </c>
       <c r="N53" s="7">
-        <v>167413</v>
+        <v>167414</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>249</v>
+        <v>338</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5301,13 +5247,13 @@
         <v>296208</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>345</v>
+        <v>133</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H54" s="7">
         <v>177</v>
@@ -5316,28 +5262,28 @@
         <v>196235</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M54" s="7">
         <v>458</v>
       </c>
       <c r="N54" s="7">
-        <v>492443</v>
+        <v>492444</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5352,13 +5298,13 @@
         <v>356282</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H55" s="7">
         <v>200</v>
@@ -5367,13 +5313,13 @@
         <v>210776</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M55" s="7">
         <v>539</v>
@@ -5382,13 +5328,13 @@
         <v>567058</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5403,13 +5349,13 @@
         <v>564694</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H56" s="7">
         <v>345</v>
@@ -5418,13 +5364,13 @@
         <v>374046</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M56" s="7">
         <v>873</v>
@@ -5433,13 +5379,13 @@
         <v>938740</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5481,7 +5427,7 @@
         <v>2195</v>
       </c>
       <c r="N57" s="7">
-        <v>2354303</v>
+        <v>2354304</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>62</v>
@@ -5495,7 +5441,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -5519,7 +5465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2457EB-7CE4-4047-9E69-C8D936266CF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55BE1E6-8FFD-499B-86DF-360C1329B58C}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5536,7 +5482,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5643,13 +5589,13 @@
         <v>41346</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>373</v>
+        <v>266</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -5658,13 +5604,13 @@
         <v>25178</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="M4" s="7">
         <v>58</v>
@@ -5673,13 +5619,13 @@
         <v>66523</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>380</v>
+        <v>162</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,13 +5640,13 @@
         <v>13925</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -5709,13 +5655,13 @@
         <v>12129</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M5" s="7">
         <v>26</v>
@@ -5724,13 +5670,13 @@
         <v>26054</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>37</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,13 +5691,13 @@
         <v>19253</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>391</v>
+        <v>252</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
@@ -5760,13 +5706,13 @@
         <v>8824</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="M6" s="7">
         <v>25</v>
@@ -5775,13 +5721,13 @@
         <v>28076</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>397</v>
+        <v>212</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5796,13 +5742,13 @@
         <v>15554</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -5811,13 +5757,13 @@
         <v>13490</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -5826,13 +5772,13 @@
         <v>29045</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>406</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5847,13 +5793,13 @@
         <v>46088</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="H8" s="7">
         <v>39</v>
@@ -5862,13 +5808,13 @@
         <v>41355</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="M8" s="7">
         <v>81</v>
@@ -5877,13 +5823,13 @@
         <v>87443</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5951,13 +5897,13 @@
         <v>19950</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>131</v>
+        <v>411</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -5966,13 +5912,13 @@
         <v>18837</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -5981,13 +5927,13 @@
         <v>38787</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6002,13 +5948,13 @@
         <v>22045</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>426</v>
+        <v>249</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -6017,13 +5963,13 @@
         <v>11585</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>291</v>
+        <v>420</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>143</v>
+        <v>422</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
@@ -6032,13 +5978,13 @@
         <v>33630</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>252</v>
+        <v>423</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,13 +5999,13 @@
         <v>34057</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>431</v>
+        <v>86</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="H12" s="7">
         <v>26</v>
@@ -6068,13 +6014,13 @@
         <v>27260</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>434</v>
+        <v>49</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="M12" s="7">
         <v>58</v>
@@ -6083,13 +6029,13 @@
         <v>61316</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>83</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,13 +6050,13 @@
         <v>33416</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -6119,13 +6065,13 @@
         <v>9902</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>297</v>
+        <v>436</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>162</v>
+        <v>437</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
@@ -6134,13 +6080,13 @@
         <v>43317</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>112</v>
+        <v>439</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6155,13 +6101,13 @@
         <v>60830</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>444</v>
+        <v>99</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>445</v>
+        <v>302</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="H14" s="7">
         <v>44</v>
@@ -6170,13 +6116,13 @@
         <v>46096</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="M14" s="7">
         <v>100</v>
@@ -6185,13 +6131,13 @@
         <v>106927</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,13 +6205,13 @@
         <v>15269</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -6274,13 +6220,13 @@
         <v>10429</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -6289,13 +6235,13 @@
         <v>25698</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>461</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6310,13 +6256,13 @@
         <v>22050</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>463</v>
+        <v>184</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -6325,13 +6271,13 @@
         <v>11167</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -6340,13 +6286,13 @@
         <v>33218</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>137</v>
+        <v>461</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>469</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6361,13 +6307,13 @@
         <v>39332</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>471</v>
+        <v>98</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="H18" s="7">
         <v>22</v>
@@ -6376,13 +6322,13 @@
         <v>20736</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="M18" s="7">
         <v>64</v>
@@ -6391,13 +6337,13 @@
         <v>60069</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6412,13 +6358,13 @@
         <v>31563</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>322</v>
+        <v>472</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -6427,13 +6373,13 @@
         <v>29868</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M19" s="7">
         <v>62</v>
@@ -6442,13 +6388,13 @@
         <v>61431</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6463,13 +6409,13 @@
         <v>18170</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>487</v>
+        <v>28</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>255</v>
+        <v>121</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -6478,13 +6424,13 @@
         <v>12131</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>329</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>144</v>
+        <v>481</v>
       </c>
       <c r="M20" s="7">
         <v>31</v>
@@ -6493,13 +6439,13 @@
         <v>30301</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>487</v>
+        <v>28</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>490</v>
+        <v>288</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6555,7 +6501,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6567,13 +6513,13 @@
         <v>14000</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -6582,13 +6528,13 @@
         <v>11618</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>296</v>
+        <v>487</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>259</v>
+        <v>488</v>
       </c>
       <c r="M22" s="7">
         <v>24</v>
@@ -6597,13 +6543,13 @@
         <v>25618</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6618,13 +6564,13 @@
         <v>7602</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -6633,13 +6579,13 @@
         <v>4926</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>504</v>
+        <v>28</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -6648,13 +6594,13 @@
         <v>12528</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6669,13 +6615,13 @@
         <v>19372</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -6684,13 +6630,13 @@
         <v>11709</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>512</v>
+        <v>329</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="M24" s="7">
         <v>31</v>
@@ -6699,13 +6645,13 @@
         <v>31081</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>516</v>
+        <v>479</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6720,13 +6666,13 @@
         <v>14828</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>518</v>
+        <v>240</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -6735,13 +6681,13 @@
         <v>13094</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="M25" s="7">
         <v>27</v>
@@ -6750,13 +6696,13 @@
         <v>27922</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>47</v>
+        <v>511</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6771,13 +6717,13 @@
         <v>56378</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="H26" s="7">
         <v>38</v>
@@ -6786,13 +6732,13 @@
         <v>40512</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="M26" s="7">
         <v>90</v>
@@ -6801,13 +6747,13 @@
         <v>96889</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6863,7 +6809,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6875,13 +6821,13 @@
         <v>1845</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>534</v>
+        <v>246</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -6890,13 +6836,13 @@
         <v>4107</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>403</v>
+        <v>523</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -6905,13 +6851,13 @@
         <v>5951</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>537</v>
+        <v>436</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6926,13 +6872,13 @@
         <v>9295</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -6941,13 +6887,13 @@
         <v>10315</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="M29" s="7">
         <v>20</v>
@@ -6956,13 +6902,13 @@
         <v>19610</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>487</v>
+        <v>28</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>546</v>
+        <v>159</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6977,13 +6923,13 @@
         <v>31880</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="H30" s="7">
         <v>20</v>
@@ -6992,13 +6938,13 @@
         <v>18126</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="M30" s="7">
         <v>49</v>
@@ -7007,13 +6953,13 @@
         <v>50006</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7028,13 +6974,13 @@
         <v>28777</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="H31" s="7">
         <v>17</v>
@@ -7043,13 +6989,13 @@
         <v>16655</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="M31" s="7">
         <v>47</v>
@@ -7058,13 +7004,13 @@
         <v>45432</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7079,13 +7025,13 @@
         <v>9133</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
@@ -7094,13 +7040,13 @@
         <v>6215</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="M32" s="7">
         <v>16</v>
@@ -7109,13 +7055,13 @@
         <v>15348</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7171,7 +7117,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -7183,13 +7129,13 @@
         <v>1862</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -7198,13 +7144,13 @@
         <v>1872</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -7213,13 +7159,13 @@
         <v>3733</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7234,13 +7180,13 @@
         <v>24253</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="H35" s="7">
         <v>15</v>
@@ -7249,13 +7195,13 @@
         <v>15095</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>585</v>
+        <v>453</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>587</v>
+        <v>260</v>
       </c>
       <c r="M35" s="7">
         <v>38</v>
@@ -7264,13 +7210,13 @@
         <v>39349</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>267</v>
+        <v>575</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7285,13 +7231,13 @@
         <v>23761</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="H36" s="7">
         <v>31</v>
@@ -7300,13 +7246,13 @@
         <v>29401</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="M36" s="7">
         <v>54</v>
@@ -7315,13 +7261,13 @@
         <v>53162</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>597</v>
+        <v>259</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7336,13 +7282,13 @@
         <v>30937</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="H37" s="7">
         <v>20</v>
@@ -7351,13 +7297,13 @@
         <v>19404</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="M37" s="7">
         <v>49</v>
@@ -7366,13 +7312,13 @@
         <v>50342</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7387,13 +7333,13 @@
         <v>26689</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="H38" s="7">
         <v>9</v>
@@ -7402,13 +7348,13 @@
         <v>9796</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="M38" s="7">
         <v>35</v>
@@ -7417,13 +7363,13 @@
         <v>36485</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>504</v>
+        <v>600</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7479,7 +7425,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7491,13 +7437,13 @@
         <v>52862</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="H40" s="7">
         <v>32</v>
@@ -7506,13 +7452,13 @@
         <v>32990</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>468</v>
+        <v>605</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>619</v>
+        <v>340</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="M40" s="7">
         <v>80</v>
@@ -7521,13 +7467,13 @@
         <v>85852</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7542,13 +7488,13 @@
         <v>61306</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>263</v>
+        <v>594</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H41" s="7">
         <v>56</v>
@@ -7557,13 +7503,13 @@
         <v>59241</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="M41" s="7">
         <v>111</v>
@@ -7572,13 +7518,13 @@
         <v>120547</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>628</v>
+        <v>389</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7593,13 +7539,13 @@
         <v>121431</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="H42" s="7">
         <v>92</v>
@@ -7608,13 +7554,13 @@
         <v>92911</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="M42" s="7">
         <v>194</v>
@@ -7623,13 +7569,13 @@
         <v>214342</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7644,13 +7590,13 @@
         <v>54471</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="H43" s="7">
         <v>36</v>
@@ -7659,13 +7605,13 @@
         <v>38132</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>120</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>536</v>
+        <v>630</v>
       </c>
       <c r="M43" s="7">
         <v>84</v>
@@ -7674,13 +7620,13 @@
         <v>92603</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>645</v>
+        <v>561</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7695,13 +7641,13 @@
         <v>69855</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>648</v>
+        <v>143</v>
       </c>
       <c r="H44" s="7">
         <v>58</v>
@@ -7710,13 +7656,13 @@
         <v>61592</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>263</v>
+        <v>636</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="M44" s="7">
         <v>118</v>
@@ -7725,13 +7671,13 @@
         <v>131447</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>306</v>
+        <v>639</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7787,7 +7733,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7799,13 +7745,13 @@
         <v>7007</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="H46" s="7">
         <v>5</v>
@@ -7814,13 +7760,13 @@
         <v>4961</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="M46" s="7">
         <v>12</v>
@@ -7829,13 +7775,13 @@
         <v>11968</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7850,13 +7796,13 @@
         <v>26962</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="H47" s="7">
         <v>25</v>
@@ -7865,13 +7811,13 @@
         <v>25945</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>666</v>
+        <v>459</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="M47" s="7">
         <v>50</v>
@@ -7880,13 +7826,13 @@
         <v>52907</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>332</v>
+        <v>657</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7901,13 +7847,13 @@
         <v>87109</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="H48" s="7">
         <v>54</v>
@@ -7916,13 +7862,13 @@
         <v>55723</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="M48" s="7">
         <v>140</v>
@@ -7931,13 +7877,13 @@
         <v>142832</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7952,13 +7898,13 @@
         <v>111605</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="H49" s="7">
         <v>92</v>
@@ -7967,13 +7913,13 @@
         <v>95536</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="M49" s="7">
         <v>199</v>
@@ -7982,13 +7928,13 @@
         <v>207141</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -8003,13 +7949,13 @@
         <v>96254</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>688</v>
+        <v>280</v>
       </c>
       <c r="H50" s="7">
         <v>55</v>
@@ -8018,13 +7964,13 @@
         <v>58306</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="M50" s="7">
         <v>145</v>
@@ -8033,13 +7979,13 @@
         <v>154561</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>694</v>
+        <v>533</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8107,13 +8053,13 @@
         <v>154140</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>696</v>
+        <v>17</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="H52" s="7">
         <v>107</v>
@@ -8125,10 +8071,10 @@
         <v>115</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>698</v>
+        <v>252</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="M52" s="7">
         <v>246</v>
@@ -8137,13 +8083,13 @@
         <v>264132</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>586</v>
+        <v>686</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8158,13 +8104,13 @@
         <v>187440</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>112</v>
+        <v>296</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>703</v>
+        <v>438</v>
       </c>
       <c r="H53" s="7">
         <v>146</v>
@@ -8173,13 +8119,13 @@
         <v>150403</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="M53" s="7">
         <v>322</v>
@@ -8188,13 +8134,13 @@
         <v>337843</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>707</v>
+        <v>163</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>709</v>
+        <v>626</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8209,13 +8155,13 @@
         <v>376194</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>710</v>
+        <v>692</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
       <c r="H54" s="7">
         <v>266</v>
@@ -8224,13 +8170,13 @@
         <v>264690</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>713</v>
+        <v>695</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>715</v>
+        <v>697</v>
       </c>
       <c r="M54" s="7">
         <v>615</v>
@@ -8239,13 +8185,13 @@
         <v>640885</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>626</v>
+        <v>698</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>716</v>
+        <v>699</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>717</v>
+        <v>700</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8260,13 +8206,13 @@
         <v>321151</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>718</v>
+        <v>701</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>719</v>
+        <v>702</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="H55" s="7">
         <v>232</v>
@@ -8275,13 +8221,13 @@
         <v>236082</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>721</v>
+        <v>704</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>357</v>
+        <v>705</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="M55" s="7">
         <v>537</v>
@@ -8290,13 +8236,13 @@
         <v>557233</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>723</v>
+        <v>539</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>347</v>
+        <v>707</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8311,13 +8257,13 @@
         <v>383397</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>231</v>
+        <v>709</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>725</v>
+        <v>143</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="H56" s="7">
         <v>262</v>
@@ -8326,13 +8272,13 @@
         <v>276004</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="M56" s="7">
         <v>616</v>
@@ -8341,13 +8287,13 @@
         <v>659401</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>730</v>
+        <v>201</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>731</v>
+        <v>371</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>732</v>
+        <v>714</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8403,7 +8349,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6709-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6709-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12F2501B-3C66-4475-A6DF-36CC7396266C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFC7C785-A74C-463D-8074-014802074295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{469A215B-87C2-47C4-8D98-D816ACFBD554}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{69950452-0909-403D-8047-3331A0552BF8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="721">
   <si>
     <t>Población según si tiene influencia sobre el orden en el que realizan las tareas en 2012 (Tasa respuesta: 33,73%)</t>
   </si>
@@ -93,2095 +93,2113 @@
     <t>9,15%</t>
   </si>
   <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
   </si>
   <si>
     <t>7,51%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
   </si>
   <si>
     <t>8,47%</t>
   </si>
   <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
   </si>
   <si>
     <t>8,62%</t>
   </si>
   <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
     <t>4,92%</t>
   </si>
   <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tiene influencia sobre el orden en el que realizan las tareas en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
     <t>14,38%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
   </si>
   <si>
     <t>26,53%</t>
   </si>
   <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
   </si>
   <si>
     <t>13,74%</t>
   </si>
   <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
   </si>
   <si>
     <t>28,79%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tiene influencia sobre el orden en el que realizan las tareas en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
   </si>
 </sst>
 </file>
@@ -2593,7 +2611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4C6FA3-D5CF-4657-9A0C-E3D42C850C84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967F0F7B-9B96-46E3-B9A9-F70C856590D7}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3354,7 +3372,7 @@
         <v>74</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -3363,13 +3381,13 @@
         <v>7105</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -3378,13 +3396,13 @@
         <v>15684</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3399,13 +3417,13 @@
         <v>29318</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -3414,13 +3432,13 @@
         <v>17771</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M18" s="7">
         <v>47</v>
@@ -3429,13 +3447,13 @@
         <v>47089</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,13 +3468,13 @@
         <v>44742</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
@@ -3465,13 +3483,13 @@
         <v>20399</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M19" s="7">
         <v>65</v>
@@ -3480,13 +3498,13 @@
         <v>65140</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3519,13 @@
         <v>53770</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>29</v>
@@ -3516,13 +3534,13 @@
         <v>30001</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>83</v>
@@ -3531,13 +3549,13 @@
         <v>83771</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,7 +3611,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3605,13 +3623,13 @@
         <v>26915</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -3620,13 +3638,13 @@
         <v>21566</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M22" s="7">
         <v>44</v>
@@ -3635,13 +3653,13 @@
         <v>48481</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,13 +3674,13 @@
         <v>16395</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H23" s="7">
         <v>16</v>
@@ -3671,13 +3689,13 @@
         <v>17188</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M23" s="7">
         <v>32</v>
@@ -3686,13 +3704,13 @@
         <v>33583</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,13 +3725,13 @@
         <v>59705</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H24" s="7">
         <v>40</v>
@@ -3722,13 +3740,13 @@
         <v>44515</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M24" s="7">
         <v>98</v>
@@ -3737,13 +3755,13 @@
         <v>104221</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,13 +3776,13 @@
         <v>55414</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
@@ -3773,13 +3791,13 @@
         <v>37508</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M25" s="7">
         <v>87</v>
@@ -3788,13 +3806,13 @@
         <v>92922</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,13 +3827,13 @@
         <v>109182</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H26" s="7">
         <v>64</v>
@@ -3824,13 +3842,13 @@
         <v>68934</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M26" s="7">
         <v>164</v>
@@ -3839,13 +3857,13 @@
         <v>178116</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,7 +3919,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3913,7 +3931,7 @@
         <v>4136</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>154</v>
@@ -3982,7 +4000,7 @@
         <v>165</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>166</v>
@@ -3997,10 +4015,10 @@
         <v>167</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4015,13 +4033,13 @@
         <v>18451</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -4030,13 +4048,13 @@
         <v>10712</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M30" s="7">
         <v>28</v>
@@ -4045,13 +4063,13 @@
         <v>29163</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4066,13 +4084,13 @@
         <v>12852</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H31" s="7">
         <v>11</v>
@@ -4081,13 +4099,13 @@
         <v>10842</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M31" s="7">
         <v>23</v>
@@ -4096,13 +4114,13 @@
         <v>23694</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,13 +4135,13 @@
         <v>27785</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
@@ -4132,13 +4150,13 @@
         <v>12925</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M32" s="7">
         <v>38</v>
@@ -4147,13 +4165,13 @@
         <v>40710</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4209,7 +4227,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4221,13 +4239,13 @@
         <v>7728</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H34" s="7">
         <v>8</v>
@@ -4236,13 +4254,13 @@
         <v>8046</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M34" s="7">
         <v>14</v>
@@ -4251,13 +4269,13 @@
         <v>15774</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>124</v>
+        <v>204</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4272,13 +4290,13 @@
         <v>5787</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -4287,13 +4305,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>209</v>
+        <v>117</v>
       </c>
       <c r="M35" s="7">
         <v>5</v>
@@ -4302,7 +4320,7 @@
         <v>5787</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>211</v>
@@ -4338,13 +4356,13 @@
         <v>7754</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>112</v>
+        <v>216</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M36" s="7">
         <v>26</v>
@@ -4353,7 +4371,7 @@
         <v>29350</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>218</v>
+        <v>112</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>219</v>
@@ -4392,10 +4410,10 @@
         <v>224</v>
       </c>
       <c r="K37" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M37" s="7">
         <v>34</v>
@@ -4404,13 +4422,13 @@
         <v>34763</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,13 +4443,13 @@
         <v>61394</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H38" s="7">
         <v>22</v>
@@ -4440,13 +4458,13 @@
         <v>25517</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M38" s="7">
         <v>81</v>
@@ -4455,13 +4473,13 @@
         <v>86911</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,7 +4535,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4529,13 +4547,13 @@
         <v>20422</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H40" s="7">
         <v>23</v>
@@ -4544,7 +4562,7 @@
         <v>23227</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>243</v>
@@ -4580,13 +4598,13 @@
         <v>13341</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>27</v>
+        <v>248</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H41" s="7">
         <v>7</v>
@@ -4595,13 +4613,13 @@
         <v>8115</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M41" s="7">
         <v>20</v>
@@ -4610,13 +4628,13 @@
         <v>21456</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,13 +4649,13 @@
         <v>66773</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H42" s="7">
         <v>37</v>
@@ -4646,13 +4664,13 @@
         <v>41576</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>218</v>
+        <v>261</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M42" s="7">
         <v>98</v>
@@ -4661,13 +4679,13 @@
         <v>108349</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>262</v>
+        <v>173</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,13 +4700,13 @@
         <v>67415</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H43" s="7">
         <v>34</v>
@@ -4697,13 +4715,13 @@
         <v>36403</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M43" s="7">
         <v>99</v>
@@ -4712,13 +4730,13 @@
         <v>103818</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4733,13 +4751,13 @@
         <v>103123</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H44" s="7">
         <v>68</v>
@@ -4748,13 +4766,13 @@
         <v>70920</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M44" s="7">
         <v>163</v>
@@ -4763,13 +4781,13 @@
         <v>174043</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,7 +4843,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4837,13 +4855,13 @@
         <v>16806</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H46" s="7">
         <v>13</v>
@@ -4852,13 +4870,13 @@
         <v>15495</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>288</v>
+        <v>34</v>
       </c>
       <c r="M46" s="7">
         <v>27</v>
@@ -4888,7 +4906,7 @@
         <v>22144</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>292</v>
@@ -4906,10 +4924,10 @@
         <v>294</v>
       </c>
       <c r="K47" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M47" s="7">
         <v>37</v>
@@ -4918,13 +4936,13 @@
         <v>41604</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>298</v>
+        <v>254</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>299</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,13 +4957,13 @@
         <v>83695</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H48" s="7">
         <v>52</v>
@@ -4954,13 +4972,13 @@
         <v>57793</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M48" s="7">
         <v>132</v>
@@ -4969,13 +4987,13 @@
         <v>141488</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,13 +5008,13 @@
         <v>136167</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H49" s="7">
         <v>76</v>
@@ -5005,13 +5023,13 @@
         <v>80320</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M49" s="7">
         <v>202</v>
@@ -5020,13 +5038,13 @@
         <v>216486</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,13 +5059,13 @@
         <v>102399</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>263</v>
+        <v>314</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H50" s="7">
         <v>77</v>
@@ -5056,13 +5074,13 @@
         <v>86506</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="L50" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="M50" s="7">
         <v>173</v>
@@ -5071,13 +5089,13 @@
         <v>188905</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,13 +5163,13 @@
         <v>97602</v>
       </c>
       <c r="E52" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G52" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="H52" s="7">
         <v>85</v>
@@ -5163,10 +5181,10 @@
         <v>35</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>81</v>
+        <v>327</v>
       </c>
       <c r="M52" s="7">
         <v>172</v>
@@ -5175,13 +5193,13 @@
         <v>188649</v>
       </c>
       <c r="O52" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P52" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="P52" s="7" t="s">
+      <c r="Q52" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5214,13 @@
         <v>99167</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H53" s="7">
         <v>61</v>
@@ -5211,28 +5229,28 @@
         <v>68247</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="M53" s="7">
         <v>153</v>
       </c>
       <c r="N53" s="7">
-        <v>167414</v>
+        <v>167413</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5265,13 @@
         <v>296208</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>133</v>
+        <v>339</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H54" s="7">
         <v>177</v>
@@ -5262,28 +5280,28 @@
         <v>196235</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L54" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="M54" s="7">
         <v>458</v>
       </c>
       <c r="N54" s="7">
-        <v>492444</v>
+        <v>492443</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="P54" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,13 +5316,13 @@
         <v>356282</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="H55" s="7">
         <v>200</v>
@@ -5313,13 +5331,13 @@
         <v>210776</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="M55" s="7">
         <v>539</v>
@@ -5328,13 +5346,13 @@
         <v>567058</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>356</v>
+        <v>300</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,13 +5367,13 @@
         <v>564694</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H56" s="7">
         <v>345</v>
@@ -5364,13 +5382,13 @@
         <v>374046</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="M56" s="7">
         <v>873</v>
@@ -5379,13 +5397,13 @@
         <v>938740</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5427,7 +5445,7 @@
         <v>2195</v>
       </c>
       <c r="N57" s="7">
-        <v>2354304</v>
+        <v>2354303</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>62</v>
@@ -5441,7 +5459,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -5465,7 +5483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55BE1E6-8FFD-499B-86DF-360C1329B58C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A893E20-CF90-4E3B-85D0-074C0221A878}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5482,7 +5500,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5589,13 +5607,13 @@
         <v>41346</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>266</v>
+        <v>365</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -5604,13 +5622,13 @@
         <v>25178</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="M4" s="7">
         <v>58</v>
@@ -5619,13 +5637,13 @@
         <v>66523</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>162</v>
+        <v>372</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5640,13 +5658,13 @@
         <v>13925</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -5655,13 +5673,13 @@
         <v>12129</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="M5" s="7">
         <v>26</v>
@@ -5670,13 +5688,13 @@
         <v>26054</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>382</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5691,13 +5709,13 @@
         <v>19253</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>252</v>
+        <v>383</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
@@ -5706,13 +5724,13 @@
         <v>8824</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="M6" s="7">
         <v>25</v>
@@ -5721,13 +5739,13 @@
         <v>28076</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>212</v>
+        <v>389</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>391</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5742,13 +5760,13 @@
         <v>15554</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -5757,13 +5775,13 @@
         <v>13490</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -5772,13 +5790,13 @@
         <v>29045</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5793,13 +5811,13 @@
         <v>46088</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="H8" s="7">
         <v>39</v>
@@ -5808,13 +5826,13 @@
         <v>41355</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="M8" s="7">
         <v>81</v>
@@ -5823,13 +5841,13 @@
         <v>87443</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5897,13 +5915,13 @@
         <v>19950</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -5912,13 +5930,13 @@
         <v>18837</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -5927,13 +5945,13 @@
         <v>38787</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5948,13 +5966,13 @@
         <v>22045</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -5963,13 +5981,13 @@
         <v>11585</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
@@ -5978,13 +5996,13 @@
         <v>33630</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,10 +6017,10 @@
         <v>34057</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>426</v>
@@ -6017,10 +6035,10 @@
         <v>427</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>49</v>
+        <v>428</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M12" s="7">
         <v>58</v>
@@ -6029,13 +6047,13 @@
         <v>61316</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6050,13 +6068,13 @@
         <v>33416</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -6065,13 +6083,13 @@
         <v>9902</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
@@ -6080,13 +6098,13 @@
         <v>43317</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,13 +6119,13 @@
         <v>60830</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>99</v>
+        <v>442</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>302</v>
+        <v>443</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="H14" s="7">
         <v>44</v>
@@ -6116,13 +6134,13 @@
         <v>46096</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="M14" s="7">
         <v>100</v>
@@ -6131,13 +6149,13 @@
         <v>106927</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>446</v>
+        <v>164</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6205,13 +6223,13 @@
         <v>15269</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -6220,13 +6238,13 @@
         <v>10429</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -6235,13 +6253,13 @@
         <v>25698</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>372</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6256,13 +6274,13 @@
         <v>22050</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>184</v>
+        <v>460</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -6271,13 +6289,13 @@
         <v>11167</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -6286,13 +6304,13 @@
         <v>33218</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>88</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,13 +6325,13 @@
         <v>39332</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>98</v>
+        <v>469</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="H18" s="7">
         <v>22</v>
@@ -6322,13 +6340,13 @@
         <v>20736</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="M18" s="7">
         <v>64</v>
@@ -6337,13 +6355,13 @@
         <v>60069</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>469</v>
+        <v>366</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6358,13 +6376,13 @@
         <v>31563</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -6373,13 +6391,13 @@
         <v>29868</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="M19" s="7">
         <v>62</v>
@@ -6388,13 +6406,13 @@
         <v>61431</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>478</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6409,13 +6427,13 @@
         <v>18170</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>28</v>
+        <v>484</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>121</v>
+        <v>485</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -6424,13 +6442,13 @@
         <v>12131</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>329</v>
+        <v>39</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="M20" s="7">
         <v>31</v>
@@ -6439,13 +6457,13 @@
         <v>30301</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>28</v>
+        <v>484</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>288</v>
+        <v>374</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6501,7 +6519,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6513,13 +6531,13 @@
         <v>14000</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -6528,13 +6546,13 @@
         <v>11618</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="M22" s="7">
         <v>24</v>
@@ -6543,13 +6561,13 @@
         <v>25618</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6564,13 +6582,13 @@
         <v>7602</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -6579,13 +6597,13 @@
         <v>4926</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>28</v>
+        <v>504</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -6594,13 +6612,13 @@
         <v>12528</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6615,13 +6633,13 @@
         <v>19372</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>502</v>
+        <v>476</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -6630,13 +6648,13 @@
         <v>11709</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>503</v>
+        <v>227</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>329</v>
+        <v>510</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="M24" s="7">
         <v>31</v>
@@ -6645,13 +6663,13 @@
         <v>31081</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>479</v>
+        <v>514</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6666,13 +6684,13 @@
         <v>14828</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -6681,13 +6699,13 @@
         <v>13094</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="M25" s="7">
         <v>27</v>
@@ -6696,13 +6714,13 @@
         <v>27922</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6717,13 +6735,13 @@
         <v>56378</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="H26" s="7">
         <v>38</v>
@@ -6732,13 +6750,13 @@
         <v>40512</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="M26" s="7">
         <v>90</v>
@@ -6747,13 +6765,13 @@
         <v>96889</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6809,7 +6827,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6821,13 +6839,13 @@
         <v>1845</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>246</v>
+        <v>532</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -6836,13 +6854,13 @@
         <v>4107</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -6851,13 +6869,13 @@
         <v>5951</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>436</v>
+        <v>536</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6872,13 +6890,13 @@
         <v>9295</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>529</v>
+        <v>375</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -6887,13 +6905,13 @@
         <v>10315</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="M29" s="7">
         <v>20</v>
@@ -6902,13 +6920,13 @@
         <v>19610</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>28</v>
+        <v>484</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>159</v>
+        <v>544</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6923,13 +6941,13 @@
         <v>31880</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="H30" s="7">
         <v>20</v>
@@ -6938,13 +6956,13 @@
         <v>18126</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="M30" s="7">
         <v>49</v>
@@ -6953,13 +6971,13 @@
         <v>50006</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6974,13 +6992,13 @@
         <v>28777</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>545</v>
+        <v>347</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="H31" s="7">
         <v>17</v>
@@ -6989,13 +7007,13 @@
         <v>16655</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>548</v>
+        <v>339</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="M31" s="7">
         <v>47</v>
@@ -7004,13 +7022,13 @@
         <v>45432</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7025,13 +7043,13 @@
         <v>9133</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
@@ -7040,13 +7058,13 @@
         <v>6215</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="M32" s="7">
         <v>16</v>
@@ -7055,13 +7073,13 @@
         <v>15348</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>560</v>
+        <v>378</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7117,7 +7135,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -7129,13 +7147,13 @@
         <v>1862</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -7144,13 +7162,13 @@
         <v>1872</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -7159,13 +7177,13 @@
         <v>3733</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7180,13 +7198,13 @@
         <v>24253</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="H35" s="7">
         <v>15</v>
@@ -7195,13 +7213,13 @@
         <v>15095</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>453</v>
+        <v>580</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="M35" s="7">
         <v>38</v>
@@ -7210,13 +7228,13 @@
         <v>39349</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7231,13 +7249,13 @@
         <v>23761</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="H36" s="7">
         <v>31</v>
@@ -7246,13 +7264,13 @@
         <v>29401</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>580</v>
+        <v>147</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="M36" s="7">
         <v>54</v>
@@ -7261,13 +7279,13 @@
         <v>53162</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>259</v>
+        <v>591</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7282,13 +7300,13 @@
         <v>30937</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="H37" s="7">
         <v>20</v>
@@ -7297,13 +7315,13 @@
         <v>19404</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="M37" s="7">
         <v>49</v>
@@ -7312,13 +7330,13 @@
         <v>50342</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7333,13 +7351,13 @@
         <v>26689</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="H38" s="7">
         <v>9</v>
@@ -7348,13 +7366,13 @@
         <v>9796</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>598</v>
+        <v>384</v>
       </c>
       <c r="M38" s="7">
         <v>35</v>
@@ -7363,13 +7381,13 @@
         <v>36485</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>600</v>
+        <v>434</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7425,7 +7443,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7437,13 +7455,13 @@
         <v>52862</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>604</v>
+        <v>339</v>
       </c>
       <c r="H40" s="7">
         <v>32</v>
@@ -7452,13 +7470,13 @@
         <v>32990</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>340</v>
+        <v>612</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="M40" s="7">
         <v>80</v>
@@ -7467,13 +7485,13 @@
         <v>85852</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7488,13 +7506,13 @@
         <v>61306</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>594</v>
+        <v>617</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>610</v>
+        <v>393</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="H41" s="7">
         <v>56</v>
@@ -7503,13 +7521,13 @@
         <v>59241</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>613</v>
+        <v>155</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="M41" s="7">
         <v>111</v>
@@ -7518,13 +7536,13 @@
         <v>120547</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>389</v>
+        <v>465</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>616</v>
+        <v>372</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7539,13 +7557,13 @@
         <v>121431</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="H42" s="7">
         <v>92</v>
@@ -7554,13 +7572,13 @@
         <v>92911</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="M42" s="7">
         <v>194</v>
@@ -7569,13 +7587,13 @@
         <v>214342</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7590,13 +7608,13 @@
         <v>54471</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="H43" s="7">
         <v>36</v>
@@ -7605,13 +7623,13 @@
         <v>38132</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>120</v>
+        <v>635</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="M43" s="7">
         <v>84</v>
@@ -7620,13 +7638,13 @@
         <v>92603</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>561</v>
+        <v>639</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7641,13 +7659,13 @@
         <v>69855</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>143</v>
+        <v>642</v>
       </c>
       <c r="H44" s="7">
         <v>58</v>
@@ -7656,13 +7674,13 @@
         <v>61592</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="M44" s="7">
         <v>118</v>
@@ -7671,13 +7689,13 @@
         <v>131447</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7733,7 +7751,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7745,13 +7763,13 @@
         <v>7007</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="H46" s="7">
         <v>5</v>
@@ -7760,13 +7778,13 @@
         <v>4961</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>646</v>
+        <v>576</v>
       </c>
       <c r="M46" s="7">
         <v>12</v>
@@ -7775,13 +7793,13 @@
         <v>11968</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7796,13 +7814,13 @@
         <v>26962</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="H47" s="7">
         <v>25</v>
@@ -7811,13 +7829,13 @@
         <v>25945</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>459</v>
+        <v>661</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="M47" s="7">
         <v>50</v>
@@ -7826,13 +7844,13 @@
         <v>52907</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7847,13 +7865,13 @@
         <v>87109</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>658</v>
+        <v>321</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>660</v>
+        <v>446</v>
       </c>
       <c r="H48" s="7">
         <v>54</v>
@@ -7862,13 +7880,13 @@
         <v>55723</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="M48" s="7">
         <v>140</v>
@@ -7877,13 +7895,13 @@
         <v>142832</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7898,13 +7916,13 @@
         <v>111605</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="H49" s="7">
         <v>92</v>
@@ -7913,13 +7931,13 @@
         <v>95536</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="M49" s="7">
         <v>199</v>
@@ -7928,13 +7946,13 @@
         <v>207141</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7949,13 +7967,13 @@
         <v>96254</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>280</v>
+        <v>681</v>
       </c>
       <c r="H50" s="7">
         <v>55</v>
@@ -7964,13 +7982,13 @@
         <v>58306</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="M50" s="7">
         <v>145</v>
@@ -7979,13 +7997,13 @@
         <v>154561</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>679</v>
+        <v>270</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>533</v>
+        <v>686</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8053,13 +8071,13 @@
         <v>154140</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>17</v>
+        <v>688</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="H52" s="7">
         <v>107</v>
@@ -8068,13 +8086,13 @@
         <v>109992</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>252</v>
+        <v>690</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="M52" s="7">
         <v>246</v>
@@ -8083,13 +8101,13 @@
         <v>264132</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>685</v>
+        <v>293</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8104,13 +8122,13 @@
         <v>187440</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>296</v>
+        <v>695</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>438</v>
+        <v>696</v>
       </c>
       <c r="H53" s="7">
         <v>146</v>
@@ -8119,13 +8137,13 @@
         <v>150403</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>688</v>
+        <v>28</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>690</v>
+        <v>603</v>
       </c>
       <c r="M53" s="7">
         <v>322</v>
@@ -8134,13 +8152,13 @@
         <v>337843</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>163</v>
+        <v>698</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>626</v>
+        <v>700</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8155,13 +8173,13 @@
         <v>376194</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="H54" s="7">
         <v>266</v>
@@ -8170,13 +8188,13 @@
         <v>264690</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>695</v>
+        <v>218</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>697</v>
+        <v>314</v>
       </c>
       <c r="M54" s="7">
         <v>615</v>
@@ -8185,13 +8203,13 @@
         <v>640885</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>700</v>
+        <v>318</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8206,13 +8224,13 @@
         <v>321151</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="H55" s="7">
         <v>232</v>
@@ -8221,13 +8239,13 @@
         <v>236082</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>704</v>
+        <v>346</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>705</v>
+        <v>140</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>706</v>
+        <v>218</v>
       </c>
       <c r="M55" s="7">
         <v>537</v>
@@ -8236,13 +8254,13 @@
         <v>557233</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>539</v>
+        <v>710</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8257,13 +8275,13 @@
         <v>383397</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>143</v>
+        <v>714</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="H56" s="7">
         <v>262</v>
@@ -8272,13 +8290,13 @@
         <v>276004</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="M56" s="7">
         <v>616</v>
@@ -8287,13 +8305,13 @@
         <v>659401</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>201</v>
+        <v>719</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8349,7 +8367,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
